--- a/speech_processing/analysis/results/cepstrum/F0_comparison_lab_female.xlsx
+++ b/speech_processing/analysis/results/cepstrum/F0_comparison_lab_female.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D150"/>
+  <dimension ref="A1:D142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,1644 +457,1556 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>216.3764343261719</v>
       </c>
       <c r="B2" t="n">
-        <v>195.12</v>
+        <v>216.22</v>
       </c>
       <c r="C2" t="n">
-        <v>195.12</v>
+        <v>0.1564343261718761</v>
       </c>
       <c r="D2" t="n">
-        <v>16.73528182061726</v>
+        <v>12.05306783906111</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>216.3764343261719</v>
+        <v>219.5777740478516</v>
       </c>
       <c r="B3" t="n">
         <v>216.22</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1564343261718761</v>
+        <v>3.357774047851564</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>219.5777740478516</v>
+        <v>221.0035247802734</v>
       </c>
       <c r="B4" t="n">
         <v>219.18</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3977740478515557</v>
+        <v>1.823524780273431</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>221.0035247802734</v>
+        <v>222.8368988037109</v>
       </c>
       <c r="B5" t="n">
-        <v>219.18</v>
+        <v>222.22</v>
       </c>
       <c r="C5" t="n">
-        <v>1.823524780273431</v>
+        <v>0.6168988037109386</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>222.8368988037109</v>
+        <v>225.5201568603516</v>
       </c>
       <c r="B6" t="n">
-        <v>222.22</v>
+        <v>225.35</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6168988037109386</v>
+        <v>0.1701568603515682</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>225.5201568603516</v>
+        <v>227.8358154296875</v>
       </c>
       <c r="B7" t="n">
-        <v>225.35</v>
+        <v>228.57</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1701568603515682</v>
+        <v>0.7341845703124932</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>227.8358154296875</v>
+        <v>229.3674011230469</v>
       </c>
       <c r="B8" t="n">
         <v>228.57</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7341845703124932</v>
+        <v>0.7974011230468818</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>229.3674011230469</v>
+        <v>230.5311584472656</v>
       </c>
       <c r="B9" t="n">
-        <v>228.57</v>
+        <v>231.88</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7974011230468818</v>
+        <v>1.34884155273437</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>230.5311584472656</v>
+        <v>117.9520034790039</v>
       </c>
       <c r="B10" t="n">
-        <v>231.88</v>
+        <v>235.29</v>
       </c>
       <c r="C10" t="n">
-        <v>1.34884155273437</v>
+        <v>117.3379965209961</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>117.9520034790039</v>
+        <v>238.5382690429688</v>
       </c>
       <c r="B11" t="n">
-        <v>235.29</v>
+        <v>238.81</v>
       </c>
       <c r="C11" t="n">
-        <v>117.3379965209961</v>
+        <v>0.2717309570312523</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>238.5382690429688</v>
+        <v>240.5958557128906</v>
       </c>
       <c r="B12" t="n">
-        <v>238.81</v>
+        <v>242.42</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2717309570312523</v>
+        <v>1.824144287109362</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>240.5958557128906</v>
+        <v>240.065185546875</v>
       </c>
       <c r="B13" t="n">
         <v>238.81</v>
       </c>
       <c r="C13" t="n">
-        <v>1.785855712890623</v>
+        <v>1.255185546874998</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>240.065185546875</v>
+        <v>239.4428253173828</v>
       </c>
       <c r="B14" t="n">
         <v>238.81</v>
       </c>
       <c r="C14" t="n">
-        <v>1.255185546874998</v>
+        <v>0.6328253173828102</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>239.4428253173828</v>
+        <v>239.5684356689453</v>
       </c>
       <c r="B15" t="n">
         <v>238.81</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6328253173828102</v>
+        <v>0.7584356689453102</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>239.5684356689453</v>
+        <v>240.3599700927734</v>
       </c>
       <c r="B16" t="n">
         <v>238.81</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7584356689453102</v>
+        <v>1.549970092773435</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>240.3599700927734</v>
+        <v>241.5301666259766</v>
       </c>
       <c r="B17" t="n">
-        <v>238.81</v>
+        <v>242.42</v>
       </c>
       <c r="C17" t="n">
-        <v>1.549970092773435</v>
+        <v>0.889833374023425</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>241.5301666259766</v>
+        <v>241.5740203857422</v>
       </c>
       <c r="B18" t="n">
         <v>242.42</v>
       </c>
       <c r="C18" t="n">
-        <v>0.889833374023425</v>
+        <v>0.8459796142578</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>241.5740203857422</v>
+        <v>241.5879516601562</v>
       </c>
       <c r="B19" t="n">
         <v>242.42</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8459796142578</v>
+        <v>0.8320483398437375</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>241.5879516601562</v>
+        <v>242.2361907958984</v>
       </c>
       <c r="B20" t="n">
         <v>242.42</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8320483398437375</v>
+        <v>0.18380920410155</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>242.2361907958984</v>
+        <v>242.2286529541016</v>
       </c>
       <c r="B21" t="n">
         <v>242.42</v>
       </c>
       <c r="C21" t="n">
-        <v>0.18380920410155</v>
+        <v>0.191347045898425</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>242.72119140625</v>
+        <v>242.0422515869141</v>
       </c>
       <c r="B22" t="n">
         <v>242.42</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3011914062500125</v>
+        <v>0.377748413085925</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>242.2286529541016</v>
+        <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>242.42</v>
+        <v>250</v>
       </c>
       <c r="C23" t="n">
-        <v>0.191347045898425</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>242.0422515869141</v>
+        <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>242.42</v>
+        <v>111.11</v>
       </c>
       <c r="C24" t="n">
-        <v>0.377748413085925</v>
+        <v>111.11</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0</v>
+        <v>112.8281860351562</v>
       </c>
       <c r="B25" t="n">
-        <v>242.42</v>
+        <v>216.22</v>
       </c>
       <c r="C25" t="n">
-        <v>242.42</v>
+        <v>103.3918139648437</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0</v>
+        <v>113.6877670288086</v>
       </c>
       <c r="B26" t="n">
-        <v>94.67</v>
+        <v>228.57</v>
       </c>
       <c r="C26" t="n">
-        <v>94.67</v>
+        <v>114.8822329711914</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112.1304550170898</v>
+        <v>228.9703979492188</v>
       </c>
       <c r="B27" t="n">
-        <v>111.11</v>
+        <v>228.57</v>
       </c>
       <c r="C27" t="n">
-        <v>1.020455017089844</v>
+        <v>0.4003979492187568</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112.8281860351562</v>
+        <v>228.9703979492188</v>
       </c>
       <c r="B28" t="n">
-        <v>216.22</v>
+        <v>228.57</v>
       </c>
       <c r="C28" t="n">
-        <v>103.3918139648437</v>
+        <v>0.4003979492187568</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>113.6877670288086</v>
+        <v>229.1919555664062</v>
       </c>
       <c r="B29" t="n">
         <v>228.57</v>
       </c>
       <c r="C29" t="n">
-        <v>114.8822329711914</v>
+        <v>0.6219555664062568</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>228.9703979492188</v>
+        <v>230.1664276123047</v>
       </c>
       <c r="B30" t="n">
         <v>228.57</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4003979492187568</v>
+        <v>1.596427612304694</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>228.9703979492188</v>
+        <v>229.8914337158203</v>
       </c>
       <c r="B31" t="n">
         <v>228.57</v>
       </c>
       <c r="C31" t="n">
-        <v>0.4003979492187568</v>
+        <v>1.321433715820319</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>229.1919555664062</v>
+        <v>230.2745208740234</v>
       </c>
       <c r="B32" t="n">
         <v>228.57</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6219555664062568</v>
+        <v>1.704520874023444</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>230.1664276123047</v>
+        <v>233.114013671875</v>
       </c>
       <c r="B33" t="n">
-        <v>228.57</v>
+        <v>231.88</v>
       </c>
       <c r="C33" t="n">
-        <v>1.596427612304694</v>
+        <v>1.234013671875005</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>229.8914337158203</v>
+        <v>236.2111358642578</v>
       </c>
       <c r="B34" t="n">
-        <v>228.57</v>
+        <v>235.29</v>
       </c>
       <c r="C34" t="n">
-        <v>1.321433715820319</v>
+        <v>0.9211358642578205</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>230.2745208740234</v>
+        <v>238.5170288085938</v>
       </c>
       <c r="B35" t="n">
-        <v>228.57</v>
+        <v>238.81</v>
       </c>
       <c r="C35" t="n">
-        <v>1.704520874023444</v>
+        <v>0.2929711914062523</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>233.114013671875</v>
+        <v>238.8132171630859</v>
       </c>
       <c r="B36" t="n">
-        <v>231.88</v>
+        <v>238.81</v>
       </c>
       <c r="C36" t="n">
-        <v>1.234013671875005</v>
+        <v>0.003217163085935226</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>236.2111358642578</v>
+        <v>238.4836883544922</v>
       </c>
       <c r="B37" t="n">
-        <v>235.29</v>
+        <v>238.81</v>
       </c>
       <c r="C37" t="n">
-        <v>0.9211358642578205</v>
+        <v>0.3263116455078148</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>238.5170288085938</v>
+        <v>237.9694061279297</v>
       </c>
       <c r="B38" t="n">
         <v>238.81</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2929711914062523</v>
+        <v>0.8405938720703148</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>238.8132171630859</v>
+        <v>237.9567260742188</v>
       </c>
       <c r="B39" t="n">
         <v>238.81</v>
       </c>
       <c r="C39" t="n">
-        <v>0.003217163085935226</v>
+        <v>0.8532739257812523</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>238.4836883544922</v>
+        <v>238.4655151367188</v>
       </c>
       <c r="B40" t="n">
         <v>238.81</v>
       </c>
       <c r="C40" t="n">
-        <v>0.3263116455078148</v>
+        <v>0.3444848632812523</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>237.9694061279297</v>
+        <v>239.9052124023438</v>
       </c>
       <c r="B41" t="n">
         <v>238.81</v>
       </c>
       <c r="C41" t="n">
-        <v>0.8405938720703148</v>
+        <v>1.095212402343748</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>237.9567260742188</v>
+        <v>241.4440307617188</v>
       </c>
       <c r="B42" t="n">
-        <v>238.81</v>
+        <v>242.42</v>
       </c>
       <c r="C42" t="n">
-        <v>0.8532739257812523</v>
+        <v>0.9759692382812375</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>238.4655151367188</v>
+        <v>240.9320373535156</v>
       </c>
       <c r="B43" t="n">
-        <v>238.81</v>
+        <v>242.42</v>
       </c>
       <c r="C43" t="n">
-        <v>0.3444848632812523</v>
+        <v>1.487962646484362</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>239.9052124023438</v>
+        <v>240.5826110839844</v>
       </c>
       <c r="B44" t="n">
         <v>242.42</v>
       </c>
       <c r="C44" t="n">
-        <v>2.514787597656237</v>
+        <v>1.837388916015612</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>241.4440307617188</v>
+        <v>241.2443695068359</v>
       </c>
       <c r="B45" t="n">
         <v>242.42</v>
       </c>
       <c r="C45" t="n">
-        <v>0.9759692382812375</v>
+        <v>1.17563049316405</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>240.9320373535156</v>
+        <v>241.4888763427734</v>
       </c>
       <c r="B46" t="n">
-        <v>242.42</v>
+        <v>238.81</v>
       </c>
       <c r="C46" t="n">
-        <v>1.487962646484362</v>
+        <v>2.678876342773435</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>240.5826110839844</v>
+        <v>240.8785095214844</v>
       </c>
       <c r="B47" t="n">
-        <v>242.42</v>
+        <v>235.29</v>
       </c>
       <c r="C47" t="n">
-        <v>1.837388916015612</v>
+        <v>5.588509521484383</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>241.2443695068359</v>
+        <v>237.3226623535156</v>
       </c>
       <c r="B48" t="n">
-        <v>242.42</v>
+        <v>238.81</v>
       </c>
       <c r="C48" t="n">
-        <v>1.17563049316405</v>
+        <v>1.487337646484377</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>241.4888763427734</v>
+        <v>238.9078826904297</v>
       </c>
       <c r="B49" t="n">
-        <v>238.81</v>
+        <v>235.29</v>
       </c>
       <c r="C49" t="n">
-        <v>2.678876342773435</v>
+        <v>3.617882690429695</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>240.8785095214844</v>
+        <v>240.1250610351562</v>
       </c>
       <c r="B50" t="n">
-        <v>238.81</v>
+        <v>242.42</v>
       </c>
       <c r="C50" t="n">
-        <v>2.068509521484373</v>
+        <v>2.294938964843737</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>237.3226623535156</v>
+        <v>232.9469604492188</v>
       </c>
       <c r="B51" t="n">
-        <v>238.81</v>
+        <v>231.88</v>
       </c>
       <c r="C51" t="n">
-        <v>1.487337646484377</v>
+        <v>1.066960449218755</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>238.9078826904297</v>
+        <v>232.5818023681641</v>
       </c>
       <c r="B52" t="n">
-        <v>242.42</v>
+        <v>231.88</v>
       </c>
       <c r="C52" t="n">
-        <v>3.5121173095703</v>
+        <v>0.701802368164067</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>240.1250610351562</v>
+        <v>233.2502899169922</v>
       </c>
       <c r="B53" t="n">
-        <v>238.81</v>
+        <v>231.88</v>
       </c>
       <c r="C53" t="n">
-        <v>1.315061035156248</v>
+        <v>1.370289916992192</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>241.7505187988281</v>
+        <v>234.281494140625</v>
       </c>
       <c r="B54" t="n">
         <v>235.29</v>
       </c>
       <c r="C54" t="n">
-        <v>6.460518798828133</v>
+        <v>1.008505859374992</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0</v>
+        <v>233.2563934326172</v>
       </c>
       <c r="B55" t="n">
-        <v>231.88</v>
+        <v>235.29</v>
       </c>
       <c r="C55" t="n">
-        <v>231.88</v>
+        <v>2.033606567382805</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>232.9469604492188</v>
+        <v>232.8049774169922</v>
       </c>
       <c r="B56" t="n">
         <v>231.88</v>
       </c>
       <c r="C56" t="n">
-        <v>1.066960449218755</v>
+        <v>0.924977416992192</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>232.5818023681641</v>
+        <v>233.6255035400391</v>
       </c>
       <c r="B57" t="n">
         <v>231.88</v>
       </c>
       <c r="C57" t="n">
-        <v>0.701802368164067</v>
+        <v>1.745503540039067</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>233.2502899169922</v>
+        <v>234.1044921875</v>
       </c>
       <c r="B58" t="n">
-        <v>231.88</v>
+        <v>235.29</v>
       </c>
       <c r="C58" t="n">
-        <v>1.370289916992192</v>
+        <v>1.185507812499992</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>234.281494140625</v>
+        <v>234.8373260498047</v>
       </c>
       <c r="B59" t="n">
-        <v>231.88</v>
+        <v>235.29</v>
       </c>
       <c r="C59" t="n">
-        <v>2.401494140625005</v>
+        <v>0.4526739501953045</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>233.2563934326172</v>
+        <v>235.9808197021484</v>
       </c>
       <c r="B60" t="n">
-        <v>231.88</v>
+        <v>235.29</v>
       </c>
       <c r="C60" t="n">
-        <v>1.376393432617192</v>
+        <v>0.6908197021484455</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>232.8049774169922</v>
+        <v>238.6443786621094</v>
       </c>
       <c r="B61" t="n">
         <v>235.29</v>
       </c>
       <c r="C61" t="n">
-        <v>2.485022583007805</v>
+        <v>3.354378662109383</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>233.6255035400391</v>
+        <v>241.4226684570312</v>
       </c>
       <c r="B62" t="n">
-        <v>235.29</v>
+        <v>242.42</v>
       </c>
       <c r="C62" t="n">
-        <v>1.66449645996093</v>
+        <v>0.9973315429687375</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>234.1044921875</v>
+        <v>241.9617767333984</v>
       </c>
       <c r="B63" t="n">
-        <v>235.29</v>
+        <v>242.42</v>
       </c>
       <c r="C63" t="n">
-        <v>1.185507812499992</v>
+        <v>0.45822326660155</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>234.8373260498047</v>
+        <v>242.6444396972656</v>
       </c>
       <c r="B64" t="n">
-        <v>235.29</v>
+        <v>242.42</v>
       </c>
       <c r="C64" t="n">
-        <v>0.4526739501953045</v>
+        <v>0.2244396972656375</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>235.9808197021484</v>
+        <v>244.3994293212891</v>
       </c>
       <c r="B65" t="n">
-        <v>235.29</v>
+        <v>242.42</v>
       </c>
       <c r="C65" t="n">
-        <v>0.6908197021484455</v>
+        <v>1.979429321289075</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>238.6443786621094</v>
+        <v>246.8097686767578</v>
       </c>
       <c r="B66" t="n">
-        <v>235.29</v>
+        <v>246.15</v>
       </c>
       <c r="C66" t="n">
-        <v>3.354378662109383</v>
+        <v>0.6597686767578068</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>241.4226684570312</v>
+        <v>246.9249267578125</v>
       </c>
       <c r="B67" t="n">
-        <v>242.42</v>
+        <v>246.15</v>
       </c>
       <c r="C67" t="n">
-        <v>0.9973315429687375</v>
+        <v>0.7749267578124943</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>241.9617767333984</v>
+        <v>245.8859405517578</v>
       </c>
       <c r="B68" t="n">
-        <v>242.42</v>
+        <v>246.15</v>
       </c>
       <c r="C68" t="n">
-        <v>0.45822326660155</v>
+        <v>0.2640594482421932</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>242.6444396972656</v>
+        <v>243.7239532470703</v>
       </c>
       <c r="B69" t="n">
-        <v>242.42</v>
+        <v>246.15</v>
       </c>
       <c r="C69" t="n">
-        <v>0.2244396972656375</v>
+        <v>2.426046752929693</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>244.3994293212891</v>
+        <v>240.7694396972656</v>
       </c>
       <c r="B70" t="n">
-        <v>246.15</v>
+        <v>238.81</v>
       </c>
       <c r="C70" t="n">
-        <v>1.750570678710943</v>
+        <v>1.959439697265623</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>246.8097686767578</v>
+        <v>239.4109039306641</v>
       </c>
       <c r="B71" t="n">
-        <v>246.15</v>
+        <v>238.81</v>
       </c>
       <c r="C71" t="n">
-        <v>0.6597686767578068</v>
+        <v>0.6009039306640602</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>246.9249267578125</v>
+        <v>238.6810607910156</v>
       </c>
       <c r="B72" t="n">
-        <v>246.15</v>
+        <v>242.42</v>
       </c>
       <c r="C72" t="n">
-        <v>0.7749267578124943</v>
+        <v>3.738939208984362</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>245.8859405517578</v>
+        <v>238.9523773193359</v>
       </c>
       <c r="B73" t="n">
         <v>246.15</v>
       </c>
       <c r="C73" t="n">
-        <v>0.2640594482421932</v>
+        <v>7.197622680664068</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>243.7239532470703</v>
+        <v>224.8915252685547</v>
       </c>
       <c r="B74" t="n">
-        <v>246.15</v>
+        <v>228.57</v>
       </c>
       <c r="C74" t="n">
-        <v>2.426046752929693</v>
+        <v>3.678474731445306</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>240.7694396972656</v>
+        <v>223.9407501220703</v>
       </c>
       <c r="B75" t="n">
-        <v>238.81</v>
+        <v>225.35</v>
       </c>
       <c r="C75" t="n">
-        <v>1.959439697265623</v>
+        <v>1.409249877929682</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>239.4109039306641</v>
+        <v>225.8541717529297</v>
       </c>
       <c r="B76" t="n">
-        <v>238.81</v>
+        <v>225.35</v>
       </c>
       <c r="C76" t="n">
-        <v>0.6009039306640602</v>
+        <v>0.5041717529296932</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>238.6810607910156</v>
+        <v>227.1962738037109</v>
       </c>
       <c r="B77" t="n">
-        <v>238.81</v>
+        <v>228.57</v>
       </c>
       <c r="C77" t="n">
-        <v>0.1289392089843773</v>
+        <v>1.373726196289056</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>238.9523773193359</v>
+        <v>227.7341918945312</v>
       </c>
       <c r="B78" t="n">
-        <v>238.81</v>
+        <v>228.57</v>
       </c>
       <c r="C78" t="n">
-        <v>0.1423773193359352</v>
+        <v>0.8358081054687432</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0</v>
+        <v>228.6441192626953</v>
       </c>
       <c r="B79" t="n">
         <v>228.57</v>
       </c>
       <c r="C79" t="n">
-        <v>228.57</v>
+        <v>0.07411926269531932</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>224.8915252685547</v>
+        <v>230.2293548583984</v>
       </c>
       <c r="B80" t="n">
-        <v>225.35</v>
+        <v>231.88</v>
       </c>
       <c r="C80" t="n">
-        <v>0.4584747314453068</v>
+        <v>1.650645141601558</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>223.9407501220703</v>
+        <v>230.3455352783203</v>
       </c>
       <c r="B81" t="n">
-        <v>225.35</v>
+        <v>231.88</v>
       </c>
       <c r="C81" t="n">
-        <v>1.409249877929682</v>
+        <v>1.534464721679683</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>225.8541717529297</v>
+        <v>230.4691162109375</v>
       </c>
       <c r="B82" t="n">
-        <v>228.57</v>
+        <v>231.88</v>
       </c>
       <c r="C82" t="n">
-        <v>2.715828247070306</v>
+        <v>1.410883789062495</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>227.1962738037109</v>
+        <v>233.5851440429688</v>
       </c>
       <c r="B83" t="n">
-        <v>228.57</v>
+        <v>235.29</v>
       </c>
       <c r="C83" t="n">
-        <v>1.373726196289056</v>
+        <v>1.704855957031242</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>227.7341918945312</v>
+        <v>117.5949554443359</v>
       </c>
       <c r="B84" t="n">
-        <v>228.57</v>
+        <v>235.29</v>
       </c>
       <c r="C84" t="n">
-        <v>0.8358081054687432</v>
+        <v>117.6950445556641</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>228.6441192626953</v>
+        <v>117.9377670288086</v>
       </c>
       <c r="B85" t="n">
-        <v>228.57</v>
+        <v>235.29</v>
       </c>
       <c r="C85" t="n">
-        <v>0.07411926269531932</v>
+        <v>117.3522329711914</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>230.2293548583984</v>
+        <v>118.2165985107422</v>
       </c>
       <c r="B86" t="n">
-        <v>228.57</v>
+        <v>235.29</v>
       </c>
       <c r="C86" t="n">
-        <v>1.659354858398444</v>
+        <v>117.0734014892578</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>230.3455352783203</v>
+        <v>118.2936325073242</v>
       </c>
       <c r="B87" t="n">
-        <v>231.88</v>
+        <v>235.29</v>
       </c>
       <c r="C87" t="n">
-        <v>1.534464721679683</v>
+        <v>116.9963674926758</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>230.4691162109375</v>
+        <v>236.7955780029297</v>
       </c>
       <c r="B88" t="n">
-        <v>231.88</v>
+        <v>235.29</v>
       </c>
       <c r="C88" t="n">
-        <v>1.410883789062495</v>
+        <v>1.505578002929695</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>233.5851440429688</v>
+        <v>237.1632995605469</v>
       </c>
       <c r="B89" t="n">
         <v>235.29</v>
       </c>
       <c r="C89" t="n">
-        <v>1.704855957031242</v>
+        <v>1.873299560546883</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>117.5949554443359</v>
+        <v>238.1643371582031</v>
       </c>
       <c r="B90" t="n">
-        <v>235.29</v>
+        <v>238.81</v>
       </c>
       <c r="C90" t="n">
-        <v>117.6950445556641</v>
+        <v>0.6456628417968773</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>117.9377670288086</v>
+        <v>239.346923828125</v>
       </c>
       <c r="B91" t="n">
-        <v>235.29</v>
+        <v>238.81</v>
       </c>
       <c r="C91" t="n">
-        <v>117.3522329711914</v>
+        <v>0.5369238281249977</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>118.2165985107422</v>
+        <v>239.4892578125</v>
       </c>
       <c r="B92" t="n">
-        <v>235.29</v>
+        <v>238.81</v>
       </c>
       <c r="C92" t="n">
-        <v>117.0734014892578</v>
+        <v>0.6792578124999977</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>118.2936325073242</v>
+        <v>238.4653625488281</v>
       </c>
       <c r="B93" t="n">
-        <v>235.29</v>
+        <v>238.81</v>
       </c>
       <c r="C93" t="n">
-        <v>116.9963674926758</v>
+        <v>0.3446374511718773</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>236.7955780029297</v>
+        <v>237.8034057617188</v>
       </c>
       <c r="B94" t="n">
-        <v>235.29</v>
+        <v>238.81</v>
       </c>
       <c r="C94" t="n">
-        <v>1.505578002929695</v>
+        <v>1.006594238281252</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>237.1632995605469</v>
+        <v>238.4515991210938</v>
       </c>
       <c r="B95" t="n">
-        <v>235.29</v>
+        <v>238.81</v>
       </c>
       <c r="C95" t="n">
-        <v>1.873299560546883</v>
+        <v>0.3584008789062523</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>238.1643371582031</v>
+        <v>240.1682281494141</v>
       </c>
       <c r="B96" t="n">
         <v>238.81</v>
       </c>
       <c r="C96" t="n">
-        <v>0.6456628417968773</v>
+        <v>1.35822814941406</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>239.346923828125</v>
+        <v>240.9600982666016</v>
       </c>
       <c r="B97" t="n">
-        <v>238.81</v>
+        <v>235.29</v>
       </c>
       <c r="C97" t="n">
-        <v>0.5369238281249977</v>
+        <v>5.67009826660157</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>239.4892578125</v>
+        <v>241.4000091552734</v>
       </c>
       <c r="B98" t="n">
-        <v>238.81</v>
+        <v>242.42</v>
       </c>
       <c r="C98" t="n">
-        <v>0.6792578124999977</v>
+        <v>1.01999084472655</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>238.4653625488281</v>
+        <v>240.351806640625</v>
       </c>
       <c r="B99" t="n">
-        <v>238.81</v>
+        <v>242.42</v>
       </c>
       <c r="C99" t="n">
-        <v>0.3446374511718773</v>
+        <v>2.068193359374987</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>237.8034057617188</v>
+        <v>239.8485107421875</v>
       </c>
       <c r="B100" t="n">
         <v>238.81</v>
       </c>
       <c r="C100" t="n">
-        <v>1.006594238281252</v>
+        <v>1.038510742187498</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>238.4515991210938</v>
+        <v>239.4909515380859</v>
       </c>
       <c r="B101" t="n">
         <v>238.81</v>
       </c>
       <c r="C101" t="n">
-        <v>0.3584008789062523</v>
+        <v>0.6809515380859352</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>240.1682281494141</v>
+        <v>238.9117279052734</v>
       </c>
       <c r="B102" t="n">
         <v>238.81</v>
       </c>
       <c r="C102" t="n">
-        <v>1.35822814941406</v>
+        <v>0.1017279052734352</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>240.9600982666016</v>
+        <v>238.5932769775391</v>
       </c>
       <c r="B103" t="n">
-        <v>235.29</v>
+        <v>238.81</v>
       </c>
       <c r="C103" t="n">
-        <v>5.67009826660157</v>
+        <v>0.2167230224609398</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>242.4393157958984</v>
+        <v>239.1634063720703</v>
       </c>
       <c r="B104" t="n">
-        <v>120.3</v>
+        <v>238.81</v>
       </c>
       <c r="C104" t="n">
-        <v>122.1393157958984</v>
+        <v>0.3534063720703102</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>241.4000091552734</v>
+        <v>240.7896881103516</v>
       </c>
       <c r="B105" t="n">
-        <v>235.29</v>
+        <v>238.81</v>
       </c>
       <c r="C105" t="n">
-        <v>6.110009155273445</v>
+        <v>1.97968811035156</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>240.351806640625</v>
+        <v>242.2556762695312</v>
       </c>
       <c r="B106" t="n">
-        <v>238.81</v>
+        <v>242.42</v>
       </c>
       <c r="C106" t="n">
-        <v>1.541806640624998</v>
+        <v>0.1643237304687375</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>239.8485107421875</v>
+        <v>243.7609405517578</v>
       </c>
       <c r="B107" t="n">
-        <v>238.81</v>
+        <v>246.15</v>
       </c>
       <c r="C107" t="n">
-        <v>1.038510742187498</v>
+        <v>2.389059448242193</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>239.4909515380859</v>
+        <v>245.0583801269531</v>
       </c>
       <c r="B108" t="n">
-        <v>238.81</v>
+        <v>246.15</v>
       </c>
       <c r="C108" t="n">
-        <v>0.6809515380859352</v>
+        <v>1.091619873046881</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>238.9117279052734</v>
+        <v>245.6042022705078</v>
       </c>
       <c r="B109" t="n">
-        <v>238.81</v>
+        <v>246.15</v>
       </c>
       <c r="C109" t="n">
-        <v>0.1017279052734352</v>
+        <v>0.5457977294921932</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>238.5932769775391</v>
+        <v>245.2643890380859</v>
       </c>
       <c r="B110" t="n">
-        <v>238.81</v>
+        <v>246.15</v>
       </c>
       <c r="C110" t="n">
-        <v>0.2167230224609398</v>
+        <v>0.8856109619140682</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>239.1634063720703</v>
+        <v>244.4032440185547</v>
       </c>
       <c r="B111" t="n">
-        <v>238.81</v>
+        <v>246.15</v>
       </c>
       <c r="C111" t="n">
-        <v>0.3534063720703102</v>
+        <v>1.746755981445318</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>240.7896881103516</v>
+        <v>244.0799255371094</v>
       </c>
       <c r="B112" t="n">
-        <v>238.81</v>
+        <v>246.15</v>
       </c>
       <c r="C112" t="n">
-        <v>1.97968811035156</v>
+        <v>2.070074462890631</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>242.2556762695312</v>
+        <v>244.4544677734375</v>
       </c>
       <c r="B113" t="n">
-        <v>238.81</v>
+        <v>246.15</v>
       </c>
       <c r="C113" t="n">
-        <v>3.445676269531248</v>
+        <v>1.695532226562506</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>243.7609405517578</v>
+        <v>243.9907989501953</v>
       </c>
       <c r="B114" t="n">
-        <v>246.15</v>
+        <v>250</v>
       </c>
       <c r="C114" t="n">
-        <v>2.389059448242193</v>
+        <v>6.009201049804688</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>245.0583801269531</v>
+        <v>242.8453216552734</v>
       </c>
       <c r="B115" t="n">
         <v>246.15</v>
       </c>
       <c r="C115" t="n">
-        <v>1.091619873046881</v>
+        <v>3.304678344726568</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>245.6042022705078</v>
+        <v>242.8792419433594</v>
       </c>
       <c r="B116" t="n">
-        <v>246.15</v>
+        <v>231.88</v>
       </c>
       <c r="C116" t="n">
-        <v>0.5457977294921932</v>
+        <v>10.99924194335938</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>245.2643890380859</v>
+        <v>215.137451171875</v>
       </c>
       <c r="B117" t="n">
-        <v>246.15</v>
+        <v>216.22</v>
       </c>
       <c r="C117" t="n">
-        <v>0.8856109619140682</v>
+        <v>1.082548828124999</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>244.4032440185547</v>
+        <v>210.6450347900391</v>
       </c>
       <c r="B118" t="n">
-        <v>246.15</v>
+        <v>213.33</v>
       </c>
       <c r="C118" t="n">
-        <v>1.746755981445318</v>
+        <v>2.68496520996095</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>244.0799255371094</v>
+        <v>207.2051849365234</v>
       </c>
       <c r="B119" t="n">
-        <v>246.15</v>
+        <v>207.79</v>
       </c>
       <c r="C119" t="n">
-        <v>2.070074462890631</v>
+        <v>0.5848150634765545</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>244.4544677734375</v>
+        <v>205.6233825683594</v>
       </c>
       <c r="B120" t="n">
-        <v>246.15</v>
+        <v>205.13</v>
       </c>
       <c r="C120" t="n">
-        <v>1.695532226562506</v>
+        <v>0.4933825683593795</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>243.9907989501953</v>
+        <v>203.8935546875</v>
       </c>
       <c r="B121" t="n">
-        <v>242.42</v>
+        <v>202.53</v>
       </c>
       <c r="C121" t="n">
-        <v>1.570798950195325</v>
+        <v>1.363554687499999</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>242.8453216552734</v>
+        <v>200.474609375</v>
       </c>
       <c r="B122" t="n">
-        <v>231.88</v>
+        <v>197.53</v>
       </c>
       <c r="C122" t="n">
-        <v>10.96532165527344</v>
+        <v>2.944609374999999</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0</v>
+        <v>196.8175048828125</v>
       </c>
       <c r="B123" t="n">
-        <v>213.33</v>
+        <v>200</v>
       </c>
       <c r="C123" t="n">
-        <v>213.33</v>
+        <v>3.1824951171875</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>215.137451171875</v>
+        <v>194.9951477050781</v>
       </c>
       <c r="B124" t="n">
-        <v>207.79</v>
+        <v>192.77</v>
       </c>
       <c r="C124" t="n">
-        <v>7.347451171875008</v>
+        <v>2.225147705078115</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>210.6450347900391</v>
+        <v>194.94921875</v>
       </c>
       <c r="B125" t="n">
-        <v>207.79</v>
+        <v>192.77</v>
       </c>
       <c r="C125" t="n">
-        <v>2.85503479003907</v>
+        <v>2.17921874999999</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>207.2051849365234</v>
+        <v>0</v>
       </c>
       <c r="B126" t="n">
-        <v>207.79</v>
+        <v>116.79</v>
       </c>
       <c r="C126" t="n">
-        <v>0.5848150634765545</v>
+        <v>116.79</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>205.6233825683594</v>
+        <v>0</v>
       </c>
       <c r="B127" t="n">
-        <v>207.79</v>
+        <v>222.22</v>
       </c>
       <c r="C127" t="n">
-        <v>2.166617431640617</v>
+        <v>222.22</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>203.8935546875</v>
+        <v>199.12744140625</v>
       </c>
       <c r="B128" t="n">
         <v>197.53</v>
       </c>
       <c r="C128" t="n">
-        <v>6.363554687499999</v>
+        <v>1.597441406249999</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>200.474609375</v>
+        <v>198.8031921386719</v>
       </c>
       <c r="B129" t="n">
-        <v>192.77</v>
+        <v>197.53</v>
       </c>
       <c r="C129" t="n">
-        <v>7.70460937499999</v>
+        <v>1.273192138671874</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>196.8175048828125</v>
+        <v>202.0155334472656</v>
       </c>
       <c r="B130" t="n">
         <v>192.77</v>
       </c>
       <c r="C130" t="n">
-        <v>4.04750488281249</v>
+        <v>9.245533447265615</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>194.9951477050781</v>
+        <v>200.9950561523438</v>
       </c>
       <c r="B131" t="n">
-        <v>192.77</v>
+        <v>200</v>
       </c>
       <c r="C131" t="n">
-        <v>2.225147705078115</v>
+        <v>0.99505615234375</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>194.94921875</v>
+        <v>198.9316864013672</v>
       </c>
       <c r="B132" t="n">
-        <v>188.24</v>
+        <v>197.53</v>
       </c>
       <c r="C132" t="n">
-        <v>6.709218749999991</v>
+        <v>1.401686401367186</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>197.3143768310547</v>
+        <v>197.4806213378906</v>
       </c>
       <c r="B133" t="n">
-        <v>116.79</v>
+        <v>197.53</v>
       </c>
       <c r="C133" t="n">
-        <v>80.52437683105468</v>
+        <v>0.04937866210937614</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>197.1938323974609</v>
+        <v>195.8957824707031</v>
       </c>
       <c r="B134" t="n">
-        <v>197.53</v>
+        <v>195.12</v>
       </c>
       <c r="C134" t="n">
-        <v>0.3361676025390636</v>
+        <v>0.7757824707031205</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>200.0948181152344</v>
+        <v>194.6224212646484</v>
       </c>
       <c r="B135" t="n">
-        <v>197.53</v>
+        <v>195.12</v>
       </c>
       <c r="C135" t="n">
-        <v>2.564818115234374</v>
+        <v>0.497578735351567</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>202.0155334472656</v>
+        <v>193.655029296875</v>
       </c>
       <c r="B136" t="n">
-        <v>197.53</v>
+        <v>192.77</v>
       </c>
       <c r="C136" t="n">
-        <v>4.485533447265624</v>
+        <v>0.8850292968749898</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>200.9950561523438</v>
+        <v>194.2839202880859</v>
       </c>
       <c r="B137" t="n">
-        <v>197.53</v>
+        <v>192.77</v>
       </c>
       <c r="C137" t="n">
-        <v>3.465056152343749</v>
+        <v>1.513920288085927</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>198.9316864013672</v>
+        <v>190.5117950439453</v>
       </c>
       <c r="B138" t="n">
-        <v>197.53</v>
+        <v>190.48</v>
       </c>
       <c r="C138" t="n">
-        <v>1.401686401367186</v>
+        <v>0.03179504394532273</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>197.4806213378906</v>
+        <v>190.1073455810547</v>
       </c>
       <c r="B139" t="n">
-        <v>197.53</v>
+        <v>190.48</v>
       </c>
       <c r="C139" t="n">
-        <v>0.04937866210937614</v>
+        <v>0.3726544189453023</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>195.8957824707031</v>
+        <v>190.3037719726562</v>
       </c>
       <c r="B140" t="n">
-        <v>197.53</v>
+        <v>192.77</v>
       </c>
       <c r="C140" t="n">
-        <v>1.634217529296876</v>
+        <v>2.46622802734376</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>194.6224212646484</v>
+        <v>189.4958801269531</v>
       </c>
       <c r="B141" t="n">
-        <v>195.12</v>
+        <v>188.24</v>
       </c>
       <c r="C141" t="n">
-        <v>0.497578735351567</v>
+        <v>1.255880126953116</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>193.655029296875</v>
+        <v>188.9998626708984</v>
       </c>
       <c r="B142" t="n">
-        <v>195.12</v>
+        <v>190.48</v>
       </c>
       <c r="C142" t="n">
-        <v>1.464970703125005</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>194.2839202880859</v>
-      </c>
-      <c r="B143" t="n">
-        <v>192.77</v>
-      </c>
-      <c r="C143" t="n">
-        <v>1.513920288085927</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>193.9375457763672</v>
-      </c>
-      <c r="B144" t="n">
-        <v>192.77</v>
-      </c>
-      <c r="C144" t="n">
-        <v>1.167545776367177</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>190.5117950439453</v>
-      </c>
-      <c r="B145" t="n">
-        <v>192.77</v>
-      </c>
-      <c r="C145" t="n">
-        <v>2.258204956054698</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="n">
-        <v>190.1073455810547</v>
-      </c>
-      <c r="B146" t="n">
-        <v>190.48</v>
-      </c>
-      <c r="C146" t="n">
-        <v>0.3726544189453023</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v>190.3037719726562</v>
-      </c>
-      <c r="B147" t="n">
-        <v>190.48</v>
-      </c>
-      <c r="C147" t="n">
-        <v>0.1762280273437398</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
-        <v>189.4958801269531</v>
-      </c>
-      <c r="B148" t="n">
-        <v>190.48</v>
-      </c>
-      <c r="C148" t="n">
-        <v>0.9841198730468648</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="n">
-        <v>188.9998626708984</v>
-      </c>
-      <c r="B149" t="n">
-        <v>183.91</v>
-      </c>
-      <c r="C149" t="n">
-        <v>5.089862670898441</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="n">
-        <v>0</v>
-      </c>
-      <c r="B150" t="n">
-        <v>66.67</v>
-      </c>
-      <c r="C150" t="n">
-        <v>66.67</v>
+        <v>1.480137329101552</v>
       </c>
     </row>
   </sheetData>
